--- a/excel_files/factor_data.xlsx
+++ b/excel_files/factor_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,114 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24/08/2021</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0001925492790740479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.003411609458509669</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.0007445663914916307</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004273972602739726</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'ACE.NZ': 0.0, 'AFC.NZ': 0.0, 'AFI.NZ': 0.0, 'AFT.NZ': 0.0, 'AGL.NZ': -0.006134969325153228, 'AIA.NZ': -0.005486968449931462, 'AIR.NZ': 0.01388888888888884, 'ALF.NZ': -0.016949152542372947, 'AMP.NZ': 0.0, 'ANZ.NZ': -0.0003374957813027102, 'APL.NZ': 0.015151515151515138, 'ARB.NZ': 0.015625, 'ARG.NZ': 0.0030674846625766694, 'ARV.NZ': 0.009708737864077666, 'ATM.NZ': 0.0, 'BFG.NZ': -0.025000000000000022, 'BGI.NZ': 0.0, 'BGP.NZ': 0.0015748031496063408, 'BIT.NZ': 0.0, 'BLT.NZ': 0.014925373134328401, 'BRM.NZ': 0.009803921568627416, 'CAV.NZ': 0.0, 'CBD.NZ': 0.012195121951219523, 'CDI.NZ': 0.0, 'CEN.NZ': 0.008536585365853666, 'CGF.NZ': 0.0, 'CMO.NZ': 0.0, 'CNU.NZ': -0.024531024531024515, 'CRP.NZ': 0.02400000000000002, 'CVT.NZ': 0.015151515151515138, 'DGL.NZ': 0.006917755572636519, 'EBO.NZ': 0.01522388059701485, 'ENS.NZ': -0.017064846416382395, 'ERD.NZ': 0.004807692307692291, 'EVO.NZ': -0.03125, 'FBU.NZ': -0.005181347150259086, 'FCT.NZ': 0.0, 'FPH.NZ': -0.002089552238806025, 'FSF.NZ': 0.010810810810810922, 'FWL.NZ': -0.013333333333333308, 'GEN.NZ': -0.03508771929824561, 'GEO.NZ': -0.01666666666666672, 'GFL.NZ': 0.0, 'GMT.NZ': 0.005769230769230749, 'GNE.NZ': 0.010494752623688264, 'GSH.NZ': 0.0, 'GTK.NZ': 0.0, 'GWC.NZ': 0.0, 'GXH.NZ': 0.009009009009008917, 'HFL.NZ': -0.0064102564102563875, 'HGH.NZ': 0.033333333333333215, 'HLG.NZ': 0.005952380952380931, 'IFT.NZ': -0.0013368983957220415, 'IKE.NZ': 0.03846153846153855, 'IPL.NZ': 0.0, 'JLG.NZ': 0.0, 'JPG.NZ': 0.0, 'KFL.NZ': 0.004975124378109541, 'KMD.NZ': 0.0, 'KPG.NZ': 0.004385964912280826, 'LIC.NZ': 0.0, 'MCK.NZ': -0.032653061224489854, 'MCY.NZ': 0.01319648093841641, 'MEL.NZ': -0.0018939393939395588, 'MFT.NZ': 0.004888345739362254, 'MHJ.NZ': 0.011363636363636465, 'MHM.NZ': 0.015873015873015817, 'MLN.NZ': 0.013513513513513598, 'MMH.NZ': 0.0, 'MPG.NZ': 0.0, 'MWE.NZ': 0.0, 'NPH.NZ': 0.012539184952978122, 'NTL.NZ': 0.0, 'NWF.NZ': 0.0185185185185186, 'NZK.NZ': 0.014184397163120588, 'NZM.NZ': 0.010752688172043001, 'NZO.NZ': 0.012499999999999956, 'NZR.NZ': 0.034482758620689724, 'NZX.NZ': 0.010810810810810922, 'OCA.NZ': 0.013698630136986356, 'PCT.NZ': 0.0, 'PEB.NZ': 0.0, 'PFI.NZ': 0.010101010101009944, 'PGW.NZ': 0.0437317784256559, 'PHL.NZ': 0.0, 'POT.NZ': -0.005540166204986208, 'PPH.NZ': 0.03571428571428581, 'PX1.NZ': -0.01754385964912264, 'PYS.NZ': 0.03125, 'QEX.NZ': 0.0, 'RAK.NZ': 0.010526315789473717, 'RBD.NZ': 0.013548387096774306, 'RYM.NZ': 0.0026791694574681557, 'SAN.NZ': 0.010638297872340496, 'SCL.NZ': 0.02277904328018243, 'SCT.NZ': -0.003424657534246478, 'SCY.NZ': 0.0, 'SDL.NZ': 0.0, 'SKC.NZ': 0.013201320132013139, 'SKL.NZ': -0.0018382352941177516, 'SKO.NZ': -0.018867924528301883, 'SKT.NZ': 0.018867924528301883, 'SML.NZ': 0.020588235294117796, 'SNC.NZ': 0.0, 'SPG.NZ': -0.015384615384615441, 'SPK.NZ': 0.003121748178980255, 'SPN.NZ': 0.0023529411764704466, 'SPY.NZ': -0.0326797385620915, 'STU.NZ': 0.01785714285714257, 'SUM.NZ': 0.05681818181818188, 'TCL.NZ': 0.003821656050955413, 'TEM.NZ': 0.008450704225352101, 'TGG.NZ': 0.006825938566553003, 'THL.NZ': 0.013215859030836885, 'TPW.NZ': -0.0036363636363635488, 'TRA.NZ': -0.006976744186046546, 'TRU.NZ': -0.04761904761904767, 'TWR.NZ': 0.014084507042253502, 'VCT.NZ': 0.007352941176470562, 'VGL.NZ': 0.01388888888888884, 'VHP.NZ': 0.004573170731707377, 'VTL.NZ': 0.0, 'WBC.NZ': 0.005192878338278861, 'WDT.NZ': 0.0, 'WHS.NZ': 0.008333333333333304, 'ZEL.NZ': -0.002873563218390718}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28/08/2021</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.004358792098968958</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.001440108165108698</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001132076890713406</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.004986301369863014</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'ACE.NZ': 0.0, 'AFC.NZ': 0.0, 'AFI.NZ': -0.0034207525655644, 'AFT.NZ': -0.011494252873563204, 'AGL.NZ': 0.024844720496894235, 'AIA.NZ': -0.0070224719101122934, 'AIR.NZ': -0.00666666666666671, 'ALF.NZ': -0.016129032258064502, 'AMP.NZ': 0.0, 'ANZ.NZ': -0.003712453594330034, 'APL.NZ': -0.014925373134328401, 'ARB.NZ': -0.032258064516129115, 'ARG.NZ': -0.006134969325153228, 'ARV.NZ': 0.004878048780487809, 'ATM.NZ': -0.039432176656151396, 'BFG.NZ': -0.012658227848101222, 'BGI.NZ': 0.0, 'BGP.NZ': -0.0015384615384614886, 'BIT.NZ': -0.029787234042553346, 'BLT.NZ': 0.0, 'BRM.NZ': 0.0, 'CAV.NZ': 0.01538461538461533, 'CDI.NZ': 0.01754385964912286, 'CEN.NZ': -0.008663366336633671, 'CGF.NZ': 0.026315789473684292, 'CMO.NZ': 0.0, 'CNU.NZ': 0.013138686131386912, 'CRP.NZ': 0.0, 'CVT.NZ': 0.0, 'DGL.NZ': 0.015602836879432758, 'EBO.NZ': 0.0005712653527565337, 'ENS.NZ': -0.018181818181818077, 'ERD.NZ': 0.0031847133757960666, 'EVO.NZ': 0.0, 'FBU.NZ': -0.02785145888594165, 'FCT.NZ': -0.02506963788300831, 'FPH.NZ': 0.008442776735459567, 'FRE.NZ': -0.011032308904649235, 'FSF.NZ': 0.0, 'FWL.NZ': 0.013605442176870763, 'GEN.NZ': 0.0, 'GEO.NZ': -0.025423728813559254, 'GFL.NZ': 0.01388888888888884, 'GMT.NZ': 0.011450381679389166, 'GNE.NZ': 0.0, 'GSH.NZ': -0.014084507042253391, 'GTK.NZ': -0.00990099009900991, 'GWC.NZ': 0.0, 'GXH.NZ': 0.017699115044247815, 'HFL.NZ': 0.0, 'HGH.NZ': 0.008928571428571175, 'HLG.NZ': -0.0098314606741573, 'IFT.NZ': 0.0054421768707482165, 'IKE.NZ': 0.0, 'IPL.NZ': -0.009803921568627416, 'JLG.NZ': -0.010869565217391353, 'JPG.NZ': -0.004319654427645703, 'KFL.NZ': 0.0, 'KMD.NZ': -0.014705882352941235, 'KPG.NZ': 0.008658008658008587, 'LIC.NZ': 0.0, 'MCK.NZ': -0.012295081967213073, 'MCY.NZ': 0.0, 'MEL.NZ': 0.009960159362550014, 'MFT.NZ': 0.005440104450005423, 'MHJ.NZ': 0.0, 'MHM.NZ': 0.0, 'MLN.NZ': -0.019607843137254943, 'MMH.NZ': 0.027732463295269127, 'MPG.NZ': -0.011235955056179803, 'MWE.NZ': 0.04081632653061229, 'NTL.NZ': 0.0, 'NWF.NZ': -0.017857142857142905, 'NZK.NZ': -0.006896551724137945, 'NZM.NZ': 0.010638297872340496, 'NZR.NZ': 0.0, 'NZX.NZ': -0.021505376344086002, 'OCA.NZ': 0.006666666666666599, 'PCT.NZ': -0.002941176470588225, 'PEB.NZ': -0.03597122302158262, 'PFI.NZ': -0.009900990099009799, 'PGW.NZ': -0.010752688172043001, 'PHL.NZ': 0.0, 'POT.NZ': 0.03216783216783203, 'PPH.NZ': 0.005714285714285783, 'PX1.NZ': -0.05263157894736825, 'PYS.NZ': -0.015384615384615441, 'QEX.NZ': 0.0, 'RAK.NZ': -0.020618556701030966, 'RBD.NZ': 0.024983984625240208, 'RYM.NZ': 0.011235955056179803, 'SAN.NZ': -0.008620689655172376, 'SCL.NZ': 0.030303030303030276, 'SCT.NZ': 0.03191489361702149, 'SCY.NZ': 0.0, 'SDL.NZ': 0.03333333333333344, 'SEK.NZ': 0.003824091778202643, 'SKC.NZ': 0.01834862385321112, 'SKL.NZ': 0.03612167300380231, 'SKO.NZ': -0.0024937655860348684, 'SKT.NZ': 0.01840490797546024, 'SML.NZ': -0.015243902439024293, 'SPG.NZ': -0.015151515151515138, 'SPK.NZ': 0.0, 'SPN.NZ': 0.008235294117647118, 'SPY.NZ': 0.01333333333333342, 'STU.NZ': 0.0, 'SUM.NZ': 0.009210526315789558, 'TEM.NZ': 0.02556818181818188, 'TGG.NZ': 0.0, 'THL.NZ': 0.04721030042918439, 'TLL.NZ': 0.0, 'TLT.NZ': 0.0, 'TPW.NZ': -0.018633540372670843, 'TRA.NZ': 0.0, 'TRU.NZ': 0.03333333333333344, 'TWR.NZ': -0.0071428571428571175, 'VCT.NZ': -0.025821596244131273, 'VGL.NZ': 0.08370044052863435, 'VHP.NZ': -0.006069802731411222, 'VTL.NZ': 0.013513513513513598, 'WBC.NZ': -0.0007382798080471931, 'WDT.NZ': -0.03149606299212604, 'WHS.NZ': -0.0026385224274406704, 'ZEL.NZ': 0.0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28/08/2021</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.004358792098968958</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.0004019093367033248</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.004693009067110755</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.004986301369863014</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'ACE.NZ': 0.0, 'AFC.NZ': 0.0, 'AFI.NZ': -0.0034207525655644, 'AFT.NZ': -0.011494252873563204, 'AGL.NZ': 0.024844720496894235, 'AIA.NZ': -0.0070224719101122934, 'AIR.NZ': -0.00666666666666671, 'ALF.NZ': -0.016129032258064502, 'AMP.NZ': 0.0, 'ANZ.NZ': -0.003712453594330034, 'APL.NZ': -0.014925373134328401, 'ARB.NZ': -0.032258064516129115, 'ARG.NZ': -0.006134969325153228, 'ARV.NZ': 0.004878048780487809, 'ATM.NZ': -0.039432176656151396, 'BFG.NZ': -0.012658227848101222, 'BGI.NZ': 0.0, 'BGP.NZ': -0.0015384615384614886, 'BIT.NZ': -0.029787234042553346, 'BLT.NZ': 0.0, 'BRM.NZ': 0.0, 'CAV.NZ': 0.01538461538461533, 'CBD.NZ': 0.012195121951219523, 'CDI.NZ': 0.01754385964912286, 'CEN.NZ': -0.008663366336633671, 'CGF.NZ': 0.026315789473684292, 'CMO.NZ': 0.0, 'CNU.NZ': 0.013138686131386912, 'CRP.NZ': 0.0, 'CVT.NZ': 0.0, 'DGL.NZ': 0.015602836879432758, 'EBO.NZ': 0.0005712653527565337, 'ENS.NZ': -0.018181818181818077, 'ERD.NZ': 0.0031847133757960666, 'EVO.NZ': 0.0, 'FBU.NZ': -0.02785145888594165, 'FCT.NZ': -0.02506963788300831, 'FPH.NZ': 0.008442776735459567, 'FRE.NZ': -0.011032308904649235, 'FSF.NZ': 0.0, 'FWL.NZ': 0.013605442176870763, 'GEN.NZ': 0.0, 'GEO.NZ': -0.025423728813559254, 'GFL.NZ': 0.01388888888888884, 'GMT.NZ': 0.011450381679389166, 'GNE.NZ': 0.0, 'GSH.NZ': -0.014084507042253391, 'GTK.NZ': -0.00990099009900991, 'GWC.NZ': 0.0, 'GXH.NZ': 0.017699115044247815, 'HFL.NZ': 0.0, 'HGH.NZ': 0.008928571428571175, 'HLG.NZ': -0.0098314606741573, 'IFT.NZ': 0.0054421768707482165, 'IKE.NZ': 0.0, 'IPL.NZ': -0.009803921568627416, 'JLG.NZ': -0.010869565217391353, 'JPG.NZ': -0.004319654427645703, 'KFL.NZ': 0.0, 'KMD.NZ': -0.014705882352941235, 'KPG.NZ': 0.008658008658008587, 'LIC.NZ': 0.0, 'MCK.NZ': -0.012295081967213073, 'MCY.NZ': 0.0, 'MEL.NZ': 0.009960159362550014, 'MFT.NZ': 0.005440104450005423, 'MHJ.NZ': 0.0, 'MHM.NZ': 0.0, 'MLN.NZ': -0.019607843137254943, 'MMH.NZ': 0.027732463295269127, 'MPG.NZ': -0.011235955056179803, 'MWE.NZ': 0.04081632653061229, 'NTL.NZ': 0.0, 'NWF.NZ': -0.017857142857142905, 'NZK.NZ': -0.006896551724137945, 'NZM.NZ': 0.010638297872340496, 'NZO.NZ': 0.0, 'NZR.NZ': 0.0, 'NZX.NZ': -0.021505376344086002, 'OCA.NZ': 0.006666666666666599, 'PCT.NZ': -0.002941176470588225, 'PEB.NZ': -0.03597122302158262, 'PFI.NZ': -0.009900990099009799, 'PGW.NZ': -0.010752688172043001, 'PHL.NZ': 0.0, 'POT.NZ': 0.03216783216783203, 'PPH.NZ': 0.005714285714285783, 'PX1.NZ': -0.05263157894736825, 'PYS.NZ': -0.015384615384615441, 'QEX.NZ': 0.0, 'RAK.NZ': -0.020618556701030966, 'RBD.NZ': 0.024983984625240208, 'RYM.NZ': 0.011235955056179803, 'SAN.NZ': -0.008620689655172376, 'SCL.NZ': 0.030303030303030276, 'SCT.NZ': 0.03191489361702149, 'SCY.NZ': 0.0, 'SDL.NZ': 0.03333333333333344, 'SEK.NZ': 0.003824091778202643, 'SKC.NZ': 0.01834862385321112, 'SKL.NZ': 0.03612167300380231, 'SKO.NZ': -0.0024937655860348684, 'SKT.NZ': 0.01840490797546024, 'SML.NZ': -0.015243902439024293, 'SPG.NZ': -0.015151515151515138, 'SPK.NZ': 0.0, 'SPN.NZ': 0.008235294117647118, 'SPY.NZ': 0.01333333333333342, 'STU.NZ': 0.0, 'SUM.NZ': 0.009210526315789558, 'TEM.NZ': 0.02556818181818188, 'TGG.NZ': 0.0, 'THL.NZ': 0.04721030042918439, 'TLL.NZ': 0.0, 'TLT.NZ': 0.0, 'TPW.NZ': -0.018633540372670843, 'TRA.NZ': 0.0, 'TRU.NZ': 0.03333333333333344, 'TWR.NZ': -0.0071428571428571175, 'VCT.NZ': -0.025821596244131273, 'VGL.NZ': 0.08370044052863435, 'VHP.NZ': -0.006069802731411222, 'VTL.NZ': 0.013513513513513598, 'WBC.NZ': -0.0007382798080471931, 'WDT.NZ': -0.03149606299212604, 'WHS.NZ': -0.0026385224274406704, 'ZEL.NZ': 0.0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29/08/2021</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.004358792098968958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0009567564055181754</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001931470052109132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004986301369863014</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'ACE.NZ': 0.0, 'AFC.NZ': 0.0, 'AFI.NZ': -0.0034207525655644, 'AFT.NZ': -0.011494252873563204, 'AGL.NZ': 0.024844720496894235, 'AIA.NZ': -0.0070224719101122934, 'AIR.NZ': -0.00666666666666671, 'ALF.NZ': -0.016129032258064502, 'AMP.NZ': 0.0, 'ANZ.NZ': -0.003712453594330034, 'APL.NZ': -0.014925373134328401, 'ARB.NZ': -0.032258064516129115, 'ARG.NZ': -0.006134969325153228, 'ARV.NZ': 0.004878048780487809, 'ATM.NZ': -0.039432176656151396, 'BFG.NZ': -0.012658227848101222, 'BGI.NZ': 0.0, 'BGP.NZ': -0.0015384615384614886, 'BIT.NZ': -0.029787234042553346, 'BLT.NZ': 0.0, 'BRM.NZ': 0.0, 'CAV.NZ': 0.01538461538461533, 'CBD.NZ': 0.012195121951219523, 'CDI.NZ': 0.01754385964912286, 'CEN.NZ': -0.008663366336633671, 'CGF.NZ': 0.026315789473684292, 'CMO.NZ': 0.0, 'CNU.NZ': 0.013138686131386912, 'CRP.NZ': 0.0, 'DGL.NZ': 0.015602836879432758, 'EBO.NZ': 0.0005712653527565337, 'ERD.NZ': 0.0031847133757960666, 'EVO.NZ': 0.0, 'FBU.NZ': -0.02785145888594165, 'FCT.NZ': -0.02506963788300831, 'FPH.NZ': 0.008442776735459567, 'FRE.NZ': -0.011032308904649235, 'FSF.NZ': 0.0, 'FWL.NZ': 0.013605442176870763, 'GEN.NZ': 0.0, 'GEO.NZ': -0.025423728813559254, 'GFL.NZ': 0.01388888888888884, 'GMT.NZ': 0.011450381679389166, 'GNE.NZ': 0.0, 'GSH.NZ': -0.014084507042253391, 'GTK.NZ': -0.00990099009900991, 'GWC.NZ': 0.0, 'GXH.NZ': 0.017699115044247815, 'HFL.NZ': 0.0, 'HGH.NZ': 0.008928571428571175, 'HLG.NZ': -0.0098314606741573, 'IFT.NZ': 0.0054421768707482165, 'IKE.NZ': 0.0, 'IPL.NZ': -0.009803921568627416, 'JLG.NZ': -0.010869565217391353, 'JPG.NZ': -0.004319654427645703, 'KFL.NZ': 0.0, 'KMD.NZ': -0.014705882352941235, 'KPG.NZ': 0.008658008658008587, 'MCK.NZ': -0.012295081967213073, 'MCY.NZ': 0.0, 'MEL.NZ': 0.009960159362550014, 'MFT.NZ': 0.005440104450005423, 'MHJ.NZ': 0.0, 'MHM.NZ': 0.0, 'MLN.NZ': -0.019607843137254943, 'MMH.NZ': 0.027732463295269127, 'MPG.NZ': -0.011235955056179803, 'MWE.NZ': 0.04081632653061229, 'NTL.NZ': 0.0, 'NWF.NZ': -0.017857142857142905, 'NZK.NZ': -0.006896551724137945, 'NZM.NZ': 0.010638297872340496, 'NZO.NZ': 0.0, 'NZR.NZ': 0.0, 'NZX.NZ': -0.021505376344086002, 'OCA.NZ': 0.006666666666666599, 'PCT.NZ': -0.002941176470588225, 'PEB.NZ': -0.03597122302158262, 'PFI.NZ': -0.009900990099009799, 'PGW.NZ': -0.010752688172043001, 'PHL.NZ': 0.0, 'POT.NZ': 0.03216783216783203, 'PPH.NZ': 0.005714285714285783, 'PX1.NZ': -0.05263157894736825, 'PYS.NZ': -0.015384615384615441, 'QEX.NZ': 0.0, 'RAK.NZ': -0.020618556701030966, 'RBD.NZ': 0.024983984625240208, 'RYM.NZ': 0.011235955056179803, 'SAN.NZ': -0.008620689655172376, 'SCL.NZ': 0.030303030303030276, 'SCT.NZ': 0.03191489361702149, 'SCY.NZ': 0.0, 'SDL.NZ': 0.03333333333333344, 'SEK.NZ': 0.003824091778202643, 'SKC.NZ': 0.01834862385321112, 'SKL.NZ': 0.03612167300380231, 'SKO.NZ': -0.0024937655860348684, 'SKT.NZ': 0.01840490797546024, 'SML.NZ': -0.015243902439024293, 'SPG.NZ': -0.015151515151515138, 'SPK.NZ': 0.0, 'SPN.NZ': 0.008235294117647118, 'SPY.NZ': 0.01333333333333342, 'STU.NZ': 0.0, 'SUM.NZ': 0.009210526315789558, 'TEM.NZ': 0.02556818181818188, 'TGG.NZ': 0.0, 'THL.NZ': 0.04721030042918439, 'TLL.NZ': 0.0, 'TLT.NZ': 0.0, 'TPW.NZ': -0.018633540372670843, 'TRA.NZ': 0.0, 'TRU.NZ': 0.03333333333333344, 'TWR.NZ': -0.0071428571428571175, 'VCT.NZ': -0.025821596244131273, 'VGL.NZ': 0.08370044052863435, 'VHP.NZ': -0.006069802731411222, 'VTL.NZ': 0.013513513513513598, 'WBC.NZ': -0.0007382798080471931, 'WDT.NZ': -0.03149606299212604, 'WHS.NZ': -0.0026385224274406704, 'ZEL.NZ': 0.0}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
